--- a/outputs/Results.xlsx
+++ b/outputs/Results.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Z8" sqref="Z8"/>
@@ -2140,6 +2140,258 @@
         <v>0.01571751583458782</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>44290.90955047007</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>32</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>GaussianNB</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>0.530729833546735</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.5255754475703325</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.5307302564102564</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.003344888217274514</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>44290.90957092256</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>32</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>KNeighborsClassifier</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8950064020486556</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.8491048593350383</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8610728205128204</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.01776433422008012</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RelationNum,AttributeNum,is_abstract</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>44290.90967320702</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>32</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>ContainsConstraints</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.9002557544757033</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.8911671794871795</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.02128887517414071</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
